--- a/material/ナビ音声設定.xlsx
+++ b/material/ナビ音声設定.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-proj\ets2_zunda_mod\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC3B68-7A69-443A-9C57-C4D143051DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23F7FB-34E6-478A-8AE1-5F9DBCE78719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="1236" windowWidth="12960" windowHeight="10068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ナビ音声定義" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,44 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>藤田幸弘</author>
-  </authors>
-  <commentList>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{0C692911-5585-4559-B68F-5D8E8BC74A8E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>藤田幸弘:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>タイミング</t>
   </si>
@@ -123,15 +87,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>左方向出口なのだ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>compound_exit_right</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>右方向出口なのだ</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -192,36 +148,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>その後、左方向出口なのだ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒダリホウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>デグチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>and_then_exit_right</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その後、右方向出口なのだ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>デグチ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -321,21 +248,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>左車線によるのだ</t>
-    <rPh sb="1" eb="3">
-      <t>シャセン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>keep_right</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>右車線によるのだ</t>
-    <rPh sb="0" eb="3">
-      <t>ミギシャセン</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -593,30 +506,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ああ、おちびちゃんが、おちびちゃんが</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>案内開始</t>
   </si>
   <si>
     <t>start</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>森に帰れるの？もう森には帰れないのだ</t>
-    <rPh sb="0" eb="1">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カエ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -726,12 +619,211 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>左方向、出口なのだ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>右方向、出口なのだ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>その後、左方向、出口なのだ</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒダリホウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>その後、右方向、出口なのだ</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左側に寄るのだ</t>
+    <rPh sb="1" eb="2">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>右側に寄るのだ</t>
+    <rPh sb="0" eb="2">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>気持ち悪いのだ</t>
+    <rPh sb="0" eb="2">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ああ、おちびちゃんを潰さないで！
+揺れるから仕方ないのだ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おもに体中が痛いのだ</t>
+    <rPh sb="3" eb="5">
+      <t>カラダジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とても揺れるのだ</t>
+    <rPh sb="3" eb="4">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちゃい、いちゃい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>足を踏まないで！いちゃい、いちゃい！</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう立ってられないのだ。こいつをクッションにするのだ。
+やめて、いちゃいいちゃいいちゃい！</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おちびちゃんが生まれたのだ、とっても可愛いのだ！
+あ、ふんずけちゃったのだ
+あぁ！なんで、おちびちゃんー！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>森に帰れる！森に帰れる！
+行き先はたぶん、食品工場かどこかだと思うのだ
+えっ！
+出発なのだ</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イキサキ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショクヒンコウジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュッパツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>目的地までご案内するのだ。
+暗くて何も見えないのだ。気晴らしに、こいつの耳でも引っ張って遊ぶのだ
+やめて、いちゃいいちゃいいちゃい、とれるとれるとれる
+あぁ
+あ、ちぎれたのだ
+ひどい、なんでこんなことするの！
+まだ一本残ってるのだ
+もうやめて！いちゃいいちゃいいちゃい
+おいちびずん、なに商品に傷付けてるのだ。あとでお前の耳もちぎってやるのだ。
+えっ、ごめんなさい、許してほしいのだ
+お客さんに怒られるのは僕なのだ。絶対に許さないのだ。
+のだぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,28 +891,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,8 +922,14 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -869,11 +952,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -897,6 +1017,35 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,7 +1053,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,11 +1341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1198,22 +1353,22 @@
     <col min="1" max="1" width="5.19921875" customWidth="1"/>
     <col min="2" max="2" width="29.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" customWidth="1"/>
-    <col min="5" max="5" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.296875" customWidth="1"/>
+    <col min="5" max="5" width="61.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1</v>
@@ -1224,14 +1379,14 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
+      <c r="D2" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -1239,15 +1394,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A39" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A59" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
+      <c r="D3" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -1258,12 +1413,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
+      <c r="D4" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -1274,12 +1429,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
-        <v>1</v>
+      <c r="D5" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1290,17 +1445,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
+      <c r="D6" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1308,15 +1463,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1324,15 +1479,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1340,15 +1495,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1356,15 +1511,15 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1372,15 +1527,15 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1388,15 +1543,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1404,17 +1559,17 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>26</v>
+      <c r="B13" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1422,15 +1577,15 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1438,15 +1593,15 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1454,15 +1609,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1470,15 +1625,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1486,15 +1641,15 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1502,15 +1657,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1518,17 +1673,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>41</v>
+      <c r="B20" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1536,15 +1691,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1552,15 +1707,15 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1568,15 +1723,15 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1584,15 +1739,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1600,15 +1755,15 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1616,15 +1771,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1632,17 +1787,17 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>90</v>
+      <c r="B27" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1650,15 +1805,15 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1666,15 +1821,15 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1682,15 +1837,15 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1698,15 +1853,15 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1714,123 +1869,313 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27.6">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27.6">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="39.6">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="18"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" ht="51.6">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="18"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="18"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="27"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="18"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="18"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="27"/>
+    </row>
+    <row r="50" spans="1:5" ht="147.6">
+      <c r="A50" s="18"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="18"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="27"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="18"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="27"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="18"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="18"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D55" s="11"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="11" t="s">
+      <c r="C56" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="7" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C57" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4" t="s">
+      <c r="D57" s="11"/>
+      <c r="E57" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="5" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4" t="s">
+      <c r="C59" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="D59" s="11"/>
+      <c r="E59" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1839,11 +2184,10 @@
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B27:B44"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/material/ナビ音声設定.xlsx
+++ b/material/ナビ音声設定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-proj\ets2_zunda_mod\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23F7FB-34E6-478A-8AE1-5F9DBCE78719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4E07F-D327-4CBE-9653-C4FFAA25D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>タイミング</t>
   </si>
@@ -766,42 +766,8 @@
     <t>08</t>
   </si>
   <si>
-    <t>森に帰れる！森に帰れる！
-行き先はたぶん、食品工場かどこかだと思うのだ
-えっ！
-出発なのだ</t>
-    <rPh sb="0" eb="1">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>イキサキ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ショクヒンコウジョウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュッパツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>02</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>09</t>
   </si>
   <si>
     <t>目的地までご案内するのだ。
@@ -816,6 +782,75 @@
 えっ、ごめんなさい、許してほしいのだ
 お客さんに怒られるのは僕なのだ。絶対に許さないのだ。
 のだぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的地までご案内するのだ
+お出かけ楽しみなのだ！どこに行くのだ？
+知らないけど、たぶんずんだ餅工場かどこかだと思うのだ
+ずんだ餅！ずんだ餅！楽しみなのだ！
+お前たちがずんだ餅になるんだぞ
+えっ！？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>森に帰れる！森に帰れる！
+行き先はたぶん、食品処理施設かどこかだと思うのだ
+えっ！
+出発なのだ</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イキサキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュッパツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>まっくらなのだ、この音と揺れはなんなのだ？
+これからお前たちをトラックで輸送するのだ。よい子にしていれば、おいしいずんだ餅になれるのだ。
+ずんだ餅！ずんだ餅！
+出発なのだ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出発なのだ
+嬉しい！嬉しい！
+え？いったい何が嬉しいのだ？
+ぱぱずんとままずんに会えるって聞いたよ？
+ああ。そうだな、もうすぐ同じところに行けるのだ。
+とっても楽しみなのだ！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出発するのだ
+暗くて怖いのだ、ここから出してほしいのだ
+目を閉じれば一緒なのだ。夜だと思って眠っていればいいのだ。
+それもそうなのだ。おやすみ、おやすみ。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -929,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -947,19 +982,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -993,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1017,12 +1039,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1040,11 +1060,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,13 +1070,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1354,7 +1368,7 @@
     <col min="2" max="2" width="29.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.296875" customWidth="1"/>
-    <col min="5" max="5" width="61.19921875" customWidth="1"/>
+    <col min="5" max="5" width="79.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1379,13 +1393,13 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1394,10 +1408,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A59" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1427,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1443,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1459,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1463,7 +1477,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1479,7 +1493,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1495,7 +1509,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1525,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1541,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1557,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1573,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1577,7 +1591,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1593,7 +1607,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1623,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -1625,7 +1639,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -1641,7 +1655,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1671,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1687,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1691,7 +1705,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1707,7 +1721,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
@@ -1723,7 +1737,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
@@ -1739,7 +1753,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1755,7 +1769,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
@@ -1771,7 +1785,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1801,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -1805,7 +1819,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
@@ -1821,7 +1835,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
@@ -1837,7 +1851,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
@@ -1853,7 +1867,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
@@ -1869,7 +1883,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
@@ -1885,296 +1899,242 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="18"/>
-      <c r="B35" s="38"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="19"/>
       <c r="D35" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="18"/>
-      <c r="B36" s="38"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="18"/>
-      <c r="B37" s="38"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="19"/>
       <c r="D37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27.6">
       <c r="A39" s="18"/>
-      <c r="B39" s="38"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="19"/>
       <c r="D39" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="39.6">
       <c r="A40" s="18"/>
-      <c r="B40" s="38"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:5">
+    <row r="41" spans="1:5" ht="51.6">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="75.599999999999994">
       <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="B42" s="27"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="51.6">
       <c r="A43" s="18"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="B43" s="27"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75.599999999999994">
       <c r="A44" s="18"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5" ht="51.6">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>64</v>
-      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="147.6">
+      <c r="A45" s="18"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="51.6">
       <c r="A46" s="18"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="27"/>
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="18"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="27"/>
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="1:5" ht="147.6">
-      <c r="A50" s="18"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>109</v>
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="27"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="18"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="27"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="18"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="27"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="18"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2184,7 +2144,7 @@
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B44"/>
+    <mergeCell ref="B27:B40"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/material/ナビ音声設定.xlsx
+++ b/material/ナビ音声設定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-proj\ets2_zunda_mod\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4E07F-D327-4CBE-9653-C4FFAA25D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9F837-F580-469C-9EA5-191683322409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>タイミング</t>
   </si>
@@ -526,10 +526,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>狭いのだ、ここから出してほしいのだ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Uターン</t>
   </si>
   <si>
@@ -537,27 +533,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>おい、下手くちょ、ここから出すのだ</t>
-    <rPh sb="3" eb="5">
-      <t>ヘタ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>速度超過警告</t>
   </si>
   <si>
     <t>speed_warning</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>助けてほしいのだ</t>
-    <rPh sb="0" eb="1">
-      <t>タス</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -851,6 +830,41 @@
 暗くて怖いのだ、ここから出してほしいのだ
 目を閉じれば一緒なのだ。夜だと思って眠っていればいいのだ。
 それもそうなのだ。おやすみ、おやすみ。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すごく揺れるのだ、転びそうなのだ
+でかずんの手をしっかり握っておくのだ
+わかったのだ。ぎゅううう
+ちがっ、それは僕のずんぽなのだ、ちぎれちゃ、ちぎれちゃ、あああああああ
+なんかちぎれたのだ
+痛い痛い、僕のずんぽがなくなったのだあ、うわーんうわーん
+べとべとしてばっちいのだ、ふきふき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そろそろご飯の時間なのだ
+ずんだ餅、ずんだ餅
+お前らもご飯食べたいのだ？
+たーい
+残念ながら、僕と運転手さんの分しかないのだ
+のだぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おちびちゃんが生まれたのだ、とっても可愛いのだ！
+そうかそうか、ちょうど到着したのだ。きっと高く売れるのだ
+やめて、おちびちゃんだけは助けて
+そうは問屋が卸さないのだ
+えぇっ
+僕、いまちょっとうまいこと言ったのだ？</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1015,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1040,7 +1054,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1076,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,6 +1090,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1373,16 +1396,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1</v>
@@ -1399,8 +1422,8 @@
       <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>98</v>
+      <c r="D2" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -1408,7 +1431,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="32"/>
@@ -1416,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -1432,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -1448,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1466,10 +1489,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1482,10 +1505,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1498,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -1514,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>17</v>
@@ -1530,7 +1553,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
@@ -1546,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
@@ -1562,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
@@ -1580,10 +1603,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1596,10 +1619,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1612,7 +1635,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>28</v>
@@ -1628,7 +1651,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
@@ -1644,7 +1667,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -1660,7 +1683,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>34</v>
@@ -1676,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
@@ -1694,7 +1717,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>39</v>
@@ -1710,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>41</v>
@@ -1726,10 +1749,10 @@
         <v>42</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1742,10 +1765,10 @@
         <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1758,7 +1781,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>45</v>
@@ -1774,7 +1797,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>47</v>
@@ -1790,7 +1813,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>49</v>
@@ -1802,13 +1825,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>51</v>
@@ -1824,7 +1847,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>53</v>
@@ -1840,7 +1863,7 @@
         <v>54</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>55</v>
@@ -1856,7 +1879,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>57</v>
@@ -1872,7 +1895,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>59</v>
@@ -1888,7 +1911,7 @@
         <v>60</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>61</v>
@@ -1904,190 +1927,228 @@
         <v>62</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E35" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="24" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27.6">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="39.6">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="87.6">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51.6">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="75.599999999999994">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="51.6">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75.599999999999994">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="147.6">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="18"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="11" t="s">
+      <c r="E46" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="51.6">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="18"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="27.6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="39.6">
-      <c r="A40" s="18"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="51.6">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="75.599999999999994">
-      <c r="A42" s="18"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="51.6">
-      <c r="A43" s="18"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="75.599999999999994">
-      <c r="A44" s="18"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="147.6">
-      <c r="A45" s="18"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="51.6">
-      <c r="A46" s="18"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="48" spans="1:5" ht="75.599999999999994">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4" t="s">
-        <v>69</v>
+      <c r="D48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2095,47 +2156,188 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12" t="s">
-        <v>78</v>
+      <c r="B51" s="38"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="75.599999999999994">
+      <c r="A62" s="1"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2346,7 @@
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="B27:B41"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/material/ナビ音声設定.xlsx
+++ b/material/ナビ音声設定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-proj\ets2_zunda_mod\material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-proj\ets2_zunda_mod\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9F837-F580-469C-9EA5-191683322409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C7C4EA-2A89-4CA0-A4F1-06A8171D6F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="14976" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ナビ音声定義" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
   <si>
     <t>タイミング</t>
   </si>
@@ -865,6 +865,65 @@
 そうは問屋が卸さないのだ
 えぇっ
 僕、いまちょっとうまいこと言ったのだ？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>むんんんんんんむー、おはよう！おはよう！
+おかあちゃ、どこ？
+おまえのおかあちゃは、ここにはいないのだ
+おかあちゃのところに帰る、出して、出して
+無駄なのだ、静かにするのだ
+うるさいのだ、おかあちゃのところに帰るのだ、出して、出して
+仕方ない、こうするしかないのだ
+やめて、くるちい、くる、ち</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的地までご案内を開始しますのだ
+おいでかずん、なんでお前だけそっちにいるのだ？
+ぼくがナビに選ばれたのだ。無事に目的地に到着できれば、僕は自由にしてもらえるのだ
+なに言ってるのだ？ここから出してほしいのだ
+黙るのだ、ぼくは運転手さんの忠実なナビなのだ
+こいつ最悪なのだ・・・</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的地までご案内するのだ
+外に出るのは初めてなのだ。とっても楽しみなのだ！
+そうか。楽しみにしているといいのだ。きっといいことがあるのだ。
+うん、ありがとうなのだ！おちびちゃんたちも、とっても嬉しそうなのだ！
+のだー、のだー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的地に到着したのだ
+森に着いたのだ？とっても楽しみなのだ！
+もう森には帰れないと何度言えばわかるのだ。
+のだ？
+まあいいのだ。降ろすとき騒がれるよりはましなのだ。
+おちびちゃんたち起きるのだ。森に着いたのだ
+のだ、のだ、のだ、のだ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的地に到着したのだ
+まさか、本当に食品工場じゃないのだ？
+それは、降ろすときに自分の目で確かめるのだ
+のだぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的地に到着したのだ
+お願い、おチビちゃんだけでも逃がしてあげて
+却下なのだ
+お願い、私はどうなってもいいから、おちびちゃんだけは
+子ずんの肉は柔らかくて高級な食材なのだ。逃がしたりしたら僕が絞められてしまうのだ。
+そんな
+おかあちゃ、おかあちゃ、どちたの</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1029,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1079,6 +1138,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,13 +1159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1416,7 +1478,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1431,10 +1493,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A75" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1512,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1528,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1544,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1500,7 +1562,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1578,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1532,7 +1594,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1548,7 +1610,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1626,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1642,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1596,7 +1658,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1614,7 +1676,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1630,7 +1692,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1646,7 +1708,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -1662,7 +1724,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -1678,7 +1740,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
@@ -1694,7 +1756,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
@@ -1710,7 +1772,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1728,7 +1790,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1744,7 +1806,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
@@ -1760,7 +1822,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
@@ -1776,7 +1838,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1792,7 +1854,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
@@ -1808,7 +1870,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
@@ -1824,7 +1886,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -1842,7 +1904,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
@@ -1858,7 +1920,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
@@ -1874,7 +1936,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
@@ -1890,7 +1952,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
@@ -1906,7 +1968,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
@@ -1922,7 +1984,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
@@ -1938,7 +2000,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="18"/>
       <c r="D34" s="23" t="s">
         <v>96</v>
@@ -1952,7 +2014,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="18"/>
       <c r="D35" s="11" t="s">
         <v>97</v>
@@ -1966,7 +2028,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="18"/>
       <c r="D36" s="23" t="s">
         <v>98</v>
@@ -1980,7 +2042,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="18"/>
       <c r="D37" s="11" t="s">
         <v>99</v>
@@ -1994,7 +2056,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="18"/>
       <c r="D38" s="23" t="s">
         <v>100</v>
@@ -2008,7 +2070,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
         <v>101</v>
@@ -2022,7 +2084,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="18"/>
       <c r="D40" s="23" t="s">
         <v>102</v>
@@ -2036,7 +2098,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="18"/>
       <c r="D41" s="23" t="s">
         <v>111</v>
@@ -2138,205 +2200,307 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="7"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="63.6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="7"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="23" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" ht="75.599999999999994">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="87.6">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="51.6">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="87.6">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="11" t="s">
+      <c r="E55" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
-      <c r="B58" s="30"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="5"/>
       <c r="D58" s="29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
-      <c r="B59" s="30"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="5"/>
       <c r="D60" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="99.6">
       <c r="A61" s="1"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" ht="75.599999999999994">
+        <v>99</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>113</v>
-      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>110</v>
+      <c r="D63" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="4"/>
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" ht="75.599999999999994">
+      <c r="A72" s="1"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12" t="s">
+      <c r="D75" s="11"/>
+      <c r="E75" s="12" t="s">
         <v>75</v>
       </c>
     </row>

--- a/material/ナビ音声設定.xlsx
+++ b/material/ナビ音声設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-proj\ets2_zunda_mod\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C7C4EA-2A89-4CA0-A4F1-06A8171D6F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC0417-7095-4DAD-A739-9BD3E85F1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="14976" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9204" yWindow="276" windowWidth="12828" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ナビ音声定義" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
   <si>
     <t>タイミング</t>
   </si>
@@ -557,13 +557,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>連番</t>
-    <rPh sb="0" eb="2">
-      <t>レンバン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -924,6 +917,131 @@
 子ずんの肉は柔らかくて高級な食材なのだ。逃がしたりしたら僕が絞められてしまうのだ。
 そんな
 おかあちゃ、おかあちゃ、どちたの</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>狭いのだ。少しでいいからここから出してほしいのだ
+絶対逃げようとするからダメなのだ
+のだぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>やっと降りれるのだ？からだじゅうが痛くてもう限界なのだ
+何を言っているのだ？目的地まで降ろさないのだ
+のだぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お腹がすいたのだ、ずんだ餅を食べたいのだ
+ずんだ餅、ずんだ餅
+ずんだ餅を食べたいのか？
+たーい
+お前たちに食わすずんだ餅はないのだ、目的地に着くまで黙ってろなのだ
+のだぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おチビちゃんが生まれたのだ、とっても可愛いのだ！
+はうー、はうー
+あ、たりないやつなのだ
+可愛いおチビちゃんには違いないのだ！頑張って育てるのだ！
+運転手さん、今夜はおいしいお酒が飲めるのだ。あれはほろ苦くて、ちゅるっとした触感で珍味なのだ
+はうー、はうー
+やめて、おチビちゃんを連れて行かないで！
+はうー、はうー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>枝番</t>
+    <rPh sb="0" eb="2">
+      <t>エダバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的地までご案内するのだ
+どこに連れていかれるの？酷いことされないか、とっても心配なのだ
+お前たちの行き先は「ずんだもんクラブハウス」と書かれているのだ
+「ずんだもんクラブハウス」？
+施設の説明によると、ずんだもんクラブハウスとは
+幸せいっぱいに暮らすずんだもんで様々な遊びを楽しむ娯楽施設で、腕を凝らしたずんだ料理も絶品である。だそうなのだ。
+よく分からないけど、楽しそうなところなのだ。とっても楽しみなのだ！ありがとうなのだ！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>怖いよ怖いよ
+助けてほしいのだ</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>もう嫌なのだ、森に帰りたいのだ</t>
+    <rPh sb="2" eb="3">
+      <t>イヤ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>危ないのだ</t>
+    <rPh sb="0" eb="1">
+      <t>アブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死にたくないのだ</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おチビちゃんが生まれたのだ！とっても可愛いのだ！
+ちょうどお腹がすいてたところだったのだ
+やめて、おチビちゃんを返して！
+はうー、はうー
+むちゃむちゃ
+苦くてまずいのだ、大人の味なのだ。返すのだ
+はああああああ、おちびちゃん！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お腹がすいたのだ。こいつら一匹ぐらい減ってもわからないのだ？
+はうー、はうー
+やめて、おチビちゃんを返して！
+むちゃむちゃ
+いちゃい、いちゃい、おかあちゃ
+はああああああ、おチビちゃん！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おチビちゃんが生まれたのだ、とっても可愛いのだ！
+でも、たりないやつなのだ
+可愛いおチビちゃんには変わりないのだ、頑張って育てるのだ！
+残念ながらそれはかなわないのだ
+え、どういうこと？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おい、へたクチョ、ここから出すのだ！
+おい、口に気を付けるのだ
+うるちゃい、おい、へたクチョのうんてんちゅ、運転変わってやるからここから出すのだ
+運転手さんへの暴言は許さないのだ。おまえはひき肉マシーンにぶち込んでやるのだ
+えええ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1088,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1151,6 +1269,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,6 +1284,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1441,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1458,7 +1585,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -1467,7 +1594,7 @@
         <v>76</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1</v>
@@ -1478,14 +1605,14 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -1493,15 +1620,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A75" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A83" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -1512,12 +1639,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -1528,12 +1655,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1544,17 +1671,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1562,15 +1689,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1578,12 +1705,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -1594,12 +1721,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>17</v>
@@ -1610,12 +1737,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
@@ -1626,12 +1753,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
@@ -1642,12 +1769,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
@@ -1658,17 +1785,17 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1676,15 +1803,15 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1692,12 +1819,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>28</v>
@@ -1708,12 +1835,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
@@ -1724,12 +1851,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -1740,12 +1867,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>34</v>
@@ -1756,12 +1883,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
@@ -1772,14 +1899,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>39</v>
@@ -1790,12 +1917,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>41</v>
@@ -1806,15 +1933,15 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1822,15 +1949,15 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1838,12 +1965,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>45</v>
@@ -1854,12 +1981,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>47</v>
@@ -1870,12 +1997,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>49</v>
@@ -1886,14 +2013,14 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>79</v>
+      <c r="B27" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>51</v>
@@ -1904,12 +2031,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>53</v>
@@ -1920,12 +2047,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>55</v>
@@ -1936,12 +2063,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>57</v>
@@ -1952,12 +2079,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>59</v>
@@ -1968,12 +2095,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>61</v>
@@ -1984,15 +2111,15 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2000,13 +2127,13 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="18"/>
       <c r="D34" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2014,13 +2141,13 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="18"/>
       <c r="D35" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2028,13 +2155,13 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="18"/>
       <c r="D36" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2042,13 +2169,13 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="18"/>
       <c r="D37" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2056,13 +2183,13 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="18"/>
       <c r="D38" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27.6">
@@ -2070,13 +2197,13 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="39.6">
@@ -2084,13 +2211,13 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="18"/>
       <c r="D40" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="87.6">
@@ -2098,13 +2225,13 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="18"/>
       <c r="D41" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="51.6">
@@ -2119,10 +2246,10 @@
         <v>64</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="75.599999999999994">
@@ -2133,10 +2260,10 @@
       <c r="B43" s="26"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="51.6">
@@ -2147,10 +2274,10 @@
       <c r="B44" s="26"/>
       <c r="C44" s="28"/>
       <c r="D44" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="75.599999999999994">
@@ -2161,10 +2288,10 @@
       <c r="B45" s="26"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="147.6">
@@ -2175,10 +2302,10 @@
       <c r="B46" s="26"/>
       <c r="C46" s="28"/>
       <c r="D46" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="51.6">
@@ -2189,10 +2316,10 @@
       <c r="B47" s="26"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="75.599999999999994">
@@ -2203,10 +2330,10 @@
       <c r="B48" s="26"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="63.6">
@@ -2214,18 +2341,22 @@
       <c r="B49" s="26"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="99.6">
       <c r="A50" s="1"/>
       <c r="B50" s="26"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="24"/>
+      <c r="D50" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
@@ -2237,50 +2368,39 @@
       <c r="D51" s="29"/>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:5" ht="75.599999999999994">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="32" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" ht="75.599999999999994">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C54" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="87.6">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="51.6">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="18"/>
       <c r="D54" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="87.6">
@@ -2291,13 +2411,13 @@
       <c r="B55" s="34"/>
       <c r="C55" s="18"/>
       <c r="D55" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="51.6">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2305,202 +2425,304 @@
       <c r="B56" s="34"/>
       <c r="C56" s="18"/>
       <c r="D56" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="87.6">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="4"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="4"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="29" t="s">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" ht="99.6">
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="39.6">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="39.6">
       <c r="A61" s="1"/>
       <c r="B61" s="31"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>99</v>
+      <c r="D61" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="75.599999999999994">
       <c r="A62" s="1"/>
       <c r="B62" s="31"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="24"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="D62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="99.6">
       <c r="A63" s="1"/>
       <c r="B63" s="31"/>
       <c r="C63" s="5"/>
       <c r="D63" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="99.6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="4"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="24"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="4"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1"/>
-      <c r="B67" s="30"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="D67" s="29"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="4"/>
+    <row r="68" spans="1:5" ht="63.6">
+      <c r="A68" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="4"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="4"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" ht="75.599999999999994">
+      <c r="B71" s="35"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="5"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" ht="27.6">
+      <c r="A73" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D73" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1"/>
       <c r="B74" s="30"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <f t="shared" si="0"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="87.6">
+      <c r="A77" s="1"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="75.599999999999994">
+      <c r="A78" s="1"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="63.6">
+      <c r="A79" s="1"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="75.599999999999994">
+      <c r="A80" s="1"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="12" t="s">
         <v>75</v>
       </c>
     </row>
